--- a/corona-server-side-asp.net/Excels/Sections/מבט על/מתחסנים.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/מבט על/מתחסנים.xlsx
@@ -42,7 +42,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>average</t>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,17 +394,17 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>6725362</v>
       </c>
     </row>
@@ -412,7 +412,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>6144955</v>
       </c>
       <c r="G3" s="2"/>
@@ -422,7 +422,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>4467842</v>
       </c>
     </row>
@@ -430,7 +430,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>836359</v>
       </c>
     </row>
@@ -438,7 +438,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>407548</v>
       </c>
     </row>
